--- a/AAII_Financials/Quarterly/INNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/INNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>INNO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +775,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,31 +982,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1096,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1078,16 +1131,22 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,16 +1154,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1119,16 +1178,22 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1252,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,8 +1346,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1300,16 +1385,22 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1487,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1423,16 +1526,22 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1464,16 +1573,22 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1816,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1686,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -1710,16 +1855,22 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1910,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1768,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -1792,62 +1949,74 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2051,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1921,16 +2094,22 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
@@ -1938,11 +2117,11 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>200</v>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -1950,11 +2129,11 @@
       <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>200</v>
+      </c>
+      <c r="M42" s="3">
+        <v>200</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -1962,8 +2141,14 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2235,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2065,19 +2262,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2085,8 +2282,14 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2103,22 +2306,22 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2126,16 +2329,22 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>200</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2143,20 +2352,20 @@
       <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2167,8 +2376,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,16 +2658,22 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -2434,19 +2685,19 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2747,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2790,14 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2837,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2582,10 +2855,10 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -2594,16 +2867,16 @@
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -2611,8 +2884,14 @@
       <c r="O59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2623,10 +2902,10 @@
         <v>800</v>
       </c>
       <c r="F60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
@@ -2635,16 +2914,16 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -2652,8 +2931,14 @@
       <c r="O60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2978,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3166,14 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2869,10 +3184,10 @@
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -2881,16 +3196,16 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,34 +3608,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -3282,10 +3653,16 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3702,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,16 +3769,16 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -3404,16 +3793,22 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4102,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +4149,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3870,11 +4329,11 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3883,22 +4342,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4092,11 +4583,11 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -4104,11 +4595,11 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4119,8 +4610,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4657,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>INNO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,20 +1005,23 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,11 +1134,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1119,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1137,16 +1164,19 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,11 +1184,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1166,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1184,16 +1214,19 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1373,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1391,16 +1434,19 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,11 +1554,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1514,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1532,16 +1584,19 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1561,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1579,16 +1634,19 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,11 +1904,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1843,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1861,16 +1934,19 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,11 +2004,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1937,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1955,68 +2034,74 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2100,19 +2187,22 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2123,8 +2213,8 @@
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
-        <v>200</v>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
@@ -2135,8 +2225,8 @@
       <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>200</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,13 +2337,16 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2268,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2276,8 +2375,8 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2312,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
@@ -2324,7 +2426,7 @@
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2335,19 +2437,22 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2358,8 +2463,8 @@
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2367,8 +2472,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2676,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -2691,7 +2817,7 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
@@ -2700,7 +2826,7 @@
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2861,7 +2998,7 @@
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>700</v>
@@ -2873,13 +3010,13 @@
         <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +3048,7 @@
         <v>800</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -2920,13 +3060,13 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3190,7 +3348,7 @@
         <v>800</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -3202,13 +3360,13 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3438,43 +3612,46 @@
         <v>-1700</v>
       </c>
       <c r="F72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1400</v>
       </c>
       <c r="H72" s="3">
         <v>-1400</v>
       </c>
       <c r="I72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J72" s="3">
         <v>-1300</v>
       </c>
       <c r="K72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1100</v>
       </c>
       <c r="M72" s="3">
         <v>-1100</v>
       </c>
       <c r="N72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-900</v>
       </c>
       <c r="P72" s="3">
         <v>-900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3626,25 +3812,25 @@
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
       </c>
       <c r="H76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-500</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -3659,10 +3845,13 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3781,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3799,16 +3994,19 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4335,8 +4565,8 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4348,11 +4578,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4589,8 +4835,8 @@
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -4601,8 +4847,8 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>
